--- a/output2.xlsx
+++ b/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,100 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,6 +856,53 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,147 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mặt sau</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHAM DUY LONG</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S Trà Co, Thanh Cái, Qung NInh phó Móng Khu Trang Ginl Trà Co, Thanh Móng Cál, phó</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03/12/2006</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>022206004066</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0v12/2031</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hải Xuan, Thành phố Móng Cái, Quảng Ninh Hải Xuán, Thành phó Móng Cá</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
